--- a/GE-Tre-PIP/GeTree.xlsx
+++ b/GE-Tre-PIP/GeTree.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="operation" sheetId="4" r:id="rId4"/>
+    <sheet name="storage" sheetId="5" r:id="rId5"/>
+    <sheet name="time" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
   <si>
     <t>pol10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,11 +77,523 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.005991(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliary memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE-Tree-pip test,      Point:1000000,       time(s) ,    memory(KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU test time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>11.353863(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.005991(s)</t>
+    <t>0.432892(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.329602(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.523497(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.494378(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 2: The time costs (ms) for the inclusion tests by GCP and R-GP on GPUs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygons</t>
+  </si>
+  <si>
+    <t>pol10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pol100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pol1249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pol28000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18*9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133*76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111*64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89*51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44*25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183*120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61*40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-GP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acce. ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>acce. ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)/ t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, where </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> refer to the time costs by GCP and R-GP for a same inclusion test task.</t>
+    </r>
+  </si>
+  <si>
+    <t>Table 1: The time costs (ms) for the inclusion tests by GCP and R-GP on CPUs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>acce. ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)/ t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, where </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> refer to the time costs by GCP and R-GP for a same inclusion test task.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每条边离散为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等距离散化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每条边离散为3个点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,19 +601,650 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>polygon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auxiliary memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GE-Tree-pip test,      Point:1000000,       time(s) ,    memory(KB)</t>
+    <t>0.00375(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005304(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.007621(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.061926(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.631623(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.139644(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.666096(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.989223(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.258018(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.377906(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.374024(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.299076(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.253876(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.496392(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39442(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.061232(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.302846(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.953102(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.884053(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.451063(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.003844(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004672(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.007012(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.036202(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pol28000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，预处理时间：我们的方法快于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6.186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试时间：我们的方法快于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3332.088</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试时间：我们的方法快于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1731.101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍；辅助存储空间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法的空间需求量是我们方法的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7.797</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pol28000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，预处理时间：我们的方法快于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试时间：我们的方法快于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2319.303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试时间：我们的方法快于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1413.976</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍；辅助存储空间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GE-Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法的空间需求量是我们方法的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5.998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE-Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-GP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pol100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pol1249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pol28000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pol10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU Preprocessing times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU Pre.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-GP-multiplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-GP-addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-GP-comparison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE-Tree-multiplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE-Tree-addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE-Tree-comparison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-GP-additional storages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE-Tree-additional storages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic storages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrease ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduct</t>
+  </si>
+  <si>
+    <t>reduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +1252,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,16 +1276,92 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -196,23 +1421,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,168 +1953,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="12">
+        <v>90302690</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5870013033</v>
+      </c>
+      <c r="H5" s="12">
+        <v>7299227148</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8203.03125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12">
+        <v>226312248</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3448869211</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4246269835</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3.5703130000000001</v>
+      </c>
+      <c r="J6" s="12">
+        <v>8473.78125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12">
+        <v>443753918</v>
+      </c>
+      <c r="G7" s="12">
+        <v>7334021242</v>
+      </c>
+      <c r="H7" s="12">
+        <v>14239512421</v>
+      </c>
+      <c r="I7" s="12">
+        <v>29.328125</v>
+      </c>
+      <c r="J7" s="12">
+        <v>11644.71875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12">
+        <v>626909850</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5121310936</v>
+      </c>
+      <c r="H8" s="12">
+        <v>88820080180</v>
+      </c>
+      <c r="I8" s="12">
+        <v>656.609375</v>
+      </c>
+      <c r="J8" s="12">
+        <v>49717.09375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="14" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="12">
+        <v>108764944</v>
+      </c>
+      <c r="G14" s="12">
+        <v>4366342881</v>
+      </c>
+      <c r="H14" s="12">
+        <v>6287782632</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="J14" s="12">
+        <v>8193.84375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="12">
+        <v>135347574</v>
+      </c>
+      <c r="G15" s="12">
+        <v>3906326161</v>
+      </c>
+      <c r="H15" s="12">
+        <v>4675423915</v>
+      </c>
+      <c r="I15" s="12">
+        <v>3.5703130000000001</v>
+      </c>
+      <c r="J15" s="12">
+        <v>8242.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="12">
+        <v>322079522</v>
+      </c>
+      <c r="G16" s="12">
+        <v>6720888514</v>
+      </c>
+      <c r="H16" s="12">
+        <v>8524416348</v>
+      </c>
+      <c r="I16" s="12">
+        <v>29.328125</v>
+      </c>
+      <c r="J16" s="12">
+        <v>8571.90625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="12">
+        <v>453871746</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4456121764</v>
+      </c>
+      <c r="H17" s="12">
+        <v>29706142189</v>
+      </c>
+      <c r="I17" s="12">
+        <v>656.609375</v>
+      </c>
+      <c r="J17" s="12">
+        <v>17169.5625</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="23" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B23" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+      <c r="I25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>90302690</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5870013033</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7299227148</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="C26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="12">
+        <v>70046832</v>
+      </c>
+      <c r="G26" s="12">
+        <v>4268379173</v>
+      </c>
+      <c r="H26" s="12">
+        <v>6248279712</v>
+      </c>
+      <c r="I26" s="12">
         <v>0.3125</v>
       </c>
-      <c r="I4" s="1">
-        <v>8203.03125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+      <c r="J26" s="12">
+        <v>8193.21875</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>226312248</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3448869211</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4246269835</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="C27" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="12">
+        <v>135652838</v>
+      </c>
+      <c r="G27" s="12">
+        <v>4242730037</v>
+      </c>
+      <c r="H27" s="12">
+        <v>5069603781</v>
+      </c>
+      <c r="I27" s="12">
         <v>3.5703130000000001</v>
       </c>
-      <c r="I5" s="1">
-        <v>8473.78125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
+      <c r="J27" s="12">
+        <v>8221.6875</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>443753918</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7334021242</v>
-      </c>
-      <c r="G6" s="1">
-        <v>14239512421</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="C28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="12">
+        <v>260428294</v>
+      </c>
+      <c r="G28" s="12">
+        <v>6437353336</v>
+      </c>
+      <c r="H28" s="12">
+        <v>8102481353</v>
+      </c>
+      <c r="I28" s="12">
         <v>29.328125</v>
       </c>
-      <c r="I6" s="1">
-        <v>11644.71875</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+      <c r="J28" s="12">
+        <v>8459.34375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>626909850</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5121310936</v>
-      </c>
-      <c r="G7" s="1">
-        <v>88820080180</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="C29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="12">
+        <v>421441068</v>
+      </c>
+      <c r="G29" s="12">
+        <v>4341708323</v>
+      </c>
+      <c r="H29" s="12">
+        <v>19115440416</v>
+      </c>
+      <c r="I29" s="12">
         <v>656.609375</v>
       </c>
-      <c r="I7" s="1">
-        <v>49717.09375</v>
-      </c>
+      <c r="J29" s="12">
+        <v>13657</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B18:J20"/>
+    <mergeCell ref="B30:J32"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -686,12 +2560,670 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+    </row>
+    <row r="4" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+    </row>
+    <row r="5" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="E6" s="5">
+        <v>91.238</v>
+      </c>
+      <c r="F6" s="6">
+        <v>64.745999999999995</v>
+      </c>
+      <c r="G6" s="5">
+        <v>86.570999999999998</v>
+      </c>
+      <c r="H6" s="6">
+        <v>63.146000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>65.429000000000002</v>
+      </c>
+      <c r="J6" s="7">
+        <v>70.629000000000005</v>
+      </c>
+      <c r="K6" s="7">
+        <v>90.001000000000005</v>
+      </c>
+      <c r="L6" s="7">
+        <v>156.16399999999999</v>
+      </c>
+      <c r="M6" s="5">
+        <v>377.67500000000001</v>
+      </c>
+      <c r="N6" s="6">
+        <v>109.587</v>
+      </c>
+      <c r="O6" s="7">
+        <v>123.55800000000001</v>
+      </c>
+      <c r="P6" s="7">
+        <v>156.82400000000001</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>297.065</v>
+      </c>
+      <c r="R6" s="7">
+        <v>917.60799999999995</v>
+      </c>
+      <c r="S6" s="7">
+        <v>2109.7550000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6">
+        <v>24.491</v>
+      </c>
+      <c r="E7" s="5">
+        <v>29.443999999999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>23.914999999999999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>29.175000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>21.01</v>
+      </c>
+      <c r="I7" s="7">
+        <v>22.317</v>
+      </c>
+      <c r="J7" s="7">
+        <v>24.507999999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>29.59</v>
+      </c>
+      <c r="L7" s="7">
+        <v>34.75</v>
+      </c>
+      <c r="M7" s="5">
+        <v>42.374000000000002</v>
+      </c>
+      <c r="N7" s="6">
+        <v>27.608000000000001</v>
+      </c>
+      <c r="O7" s="7">
+        <v>28.309000000000001</v>
+      </c>
+      <c r="P7" s="7">
+        <v>30.298999999999999</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>39.584000000000003</v>
+      </c>
+      <c r="R7" s="7">
+        <v>61.104999999999997</v>
+      </c>
+      <c r="S7" s="7">
+        <v>81.665000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ref="D8:S8" si="0">(D6-D7)/D7</f>
+        <v>1.7046670205381567</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0986958293710094</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.7073384904871418</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9673007712082262</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0055211803902901</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.9318008692924677</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8818753060225237</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0416018925312605</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>3.4939280575539566</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>7.9128946995799305</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9693929295856272</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3646190257515278</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1758803920921483</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5046736054971701</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="0"/>
+        <v>14.016905326896326</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="0"/>
+        <v>24.834261923712727</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+    </row>
+    <row r="13" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+    </row>
+    <row r="15" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.363</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.002</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1.327</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6.6920000000000002</v>
+      </c>
+      <c r="M16" s="5">
+        <v>15.46</v>
+      </c>
+      <c r="N16" s="6">
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="O16" s="7">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="P16" s="7">
+        <v>5.8890000000000002</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>15.199</v>
+      </c>
+      <c r="R16" s="7">
+        <v>48.344000000000001</v>
+      </c>
+      <c r="S16" s="7">
+        <v>83.462000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="R17" s="7">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="S17" s="7">
+        <v>4.2430000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" ref="D18:S18" si="1">(D16-D17)/D17</f>
+        <v>0.58857808857808858</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.51995798319327746</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.98640483383685784</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4410596026490068</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66445182724252494</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.8335999999999999</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0864779874213835</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8973966309341499</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>6.4521158129175946</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
+        <v>7.1027253668763111</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8470031545741321</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="1"/>
+        <v>5.9880597014925376</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>6.8520000000000003</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>13.021217712177121</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="1"/>
+        <v>17.825545171339567</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="1"/>
+        <v>18.670516144237567</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C19:S20"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="C9:S10"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,12 +3231,1020 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="3:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7451.0630000000001</v>
+      </c>
+      <c r="F5" s="12">
+        <v>24.491</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="48"/>
+      <c r="D6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="12">
+        <v>14884.053</v>
+      </c>
+      <c r="F6" s="14">
+        <v>23.914999999999999</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="48"/>
+      <c r="D7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="12">
+        <v>27953.101999999999</v>
+      </c>
+      <c r="F7" s="16">
+        <v>24.507999999999999</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="48"/>
+      <c r="D8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="12">
+        <v>70302.846000000005</v>
+      </c>
+      <c r="F8" s="14">
+        <v>30.298999999999999</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="48"/>
+      <c r="D10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="48"/>
+      <c r="D11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="48"/>
+      <c r="D12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="48"/>
+      <c r="D14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="48"/>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="48"/>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="4:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="4:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D21" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D22" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D37" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="10" width="21.75" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="13" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D5" s="12" t="str">
+        <f>Sheet3!D5</f>
+        <v>pol10</v>
+      </c>
+      <c r="E5" s="17">
+        <v>70046832</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4756511</v>
+      </c>
+      <c r="G5" s="21">
+        <f>(F5/E5)</f>
+        <v>6.7904726940398966E-2</v>
+      </c>
+      <c r="H5" s="17">
+        <v>4268379173</v>
+      </c>
+      <c r="I5" s="16">
+        <v>10895260</v>
+      </c>
+      <c r="J5" s="21">
+        <f>I5/H5</f>
+        <v>2.5525520480745726E-3</v>
+      </c>
+      <c r="K5" s="17">
+        <v>6248279712</v>
+      </c>
+      <c r="L5" s="16">
+        <v>20599931</v>
+      </c>
+      <c r="M5" s="21">
+        <f>L5/K5</f>
+        <v>3.2968964178151697E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D6" s="12" t="str">
+        <f>Sheet3!D6</f>
+        <v>pol100</v>
+      </c>
+      <c r="E6" s="17">
+        <v>135652838</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3990643</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" ref="G6:G8" si="0">(F6/E6)</f>
+        <v>2.9418057586086035E-2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4242730037</v>
+      </c>
+      <c r="I6" s="14">
+        <v>8811892</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" ref="J6:J8" si="1">I6/H6</f>
+        <v>2.0769391224879389E-3</v>
+      </c>
+      <c r="K6" s="17">
+        <v>5069603781</v>
+      </c>
+      <c r="L6" s="14">
+        <v>14926479</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" ref="M6:M8" si="2">L6/K6</f>
+        <v>2.9443087950860908E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D7" s="12" t="str">
+        <f>Sheet3!D7</f>
+        <v>pol1249</v>
+      </c>
+      <c r="E7" s="17">
+        <v>260428294</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3769788</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>1.4475339611140716E-2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>6437353336</v>
+      </c>
+      <c r="I7" s="16">
+        <v>8303542</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="1"/>
+        <v>1.2898999894201239E-3</v>
+      </c>
+      <c r="K7" s="17">
+        <v>8102481353</v>
+      </c>
+      <c r="L7" s="16">
+        <v>13602169</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="2"/>
+        <v>1.6787658505333927E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D8" s="12" t="str">
+        <f>Sheet3!D8</f>
+        <v>pol28000</v>
+      </c>
+      <c r="E8" s="17">
+        <v>421441068</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3760968</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>8.9240662231806992E-3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>4341708323</v>
+      </c>
+      <c r="I8" s="14">
+        <v>9343778</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="1"/>
+        <v>2.1520971251112763E-3</v>
+      </c>
+      <c r="K8" s="17">
+        <v>19115440416</v>
+      </c>
+      <c r="L8" s="14">
+        <v>16003250</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="2"/>
+        <v>8.3718970903777685E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="49"/>
+    </row>
+    <row r="12" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="49"/>
+    </row>
+    <row r="13" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="49"/>
+    </row>
+    <row r="17" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="4:13" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.3125</v>
+      </c>
+      <c r="G5" s="12">
+        <v>8193.21875</v>
+      </c>
+      <c r="H5" s="16">
+        <v>3.4765630000000001</v>
+      </c>
+      <c r="I5" s="20">
+        <f>(G5-H5)/H5</f>
+        <v>2355.7007846542692</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3.5703130000000001</v>
+      </c>
+      <c r="G6" s="12">
+        <v>8221.6875</v>
+      </c>
+      <c r="H6" s="14">
+        <v>37.019531000000001</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" ref="I6:I8" si="0">(G6-H6)/H6</f>
+        <v>221.09053647924389</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="16">
+        <v>29.328125</v>
+      </c>
+      <c r="G7" s="12">
+        <v>8459.34375</v>
+      </c>
+      <c r="H7" s="16">
+        <v>250.105469</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>32.823105843399212</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="14">
+        <v>656.609375</v>
+      </c>
+      <c r="G8" s="12">
+        <v>13657</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1951.6835940000001</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>5.9975481896682883</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <f>(E5-F5)/F5</f>
+        <v>131.55172413793102</v>
+      </c>
+      <c r="H5" s="21">
+        <v>131.55172413793099</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C6" s="48"/>
+      <c r="D6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" ref="G6:H16" si="0">(E6-F6)/F6</f>
+        <v>23.082474226804123</v>
+      </c>
+      <c r="H6" s="21">
+        <v>23.082474226804099</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C7" s="48"/>
+      <c r="D7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7.0119999999999996</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>5.2495543672014255</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5.24955436720143</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C8" s="48"/>
+      <c r="D8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="12">
+        <v>36.201999999999998</v>
+      </c>
+      <c r="F8" s="19">
+        <v>8.6180000000000003</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>3.2007426317010901</v>
+      </c>
+      <c r="H8" s="21">
+        <v>3.2007426317010901</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C9" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7451.0630000000001</v>
+      </c>
+      <c r="F9" s="12">
+        <v>24.491</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>303.23678085827447</v>
+      </c>
+      <c r="H9" s="21">
+        <v>303.23678085827402</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C10" s="48"/>
+      <c r="D10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="12">
+        <v>14884.053</v>
+      </c>
+      <c r="F10" s="14">
+        <v>23.914999999999999</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>621.37311310892744</v>
+      </c>
+      <c r="H10" s="21">
+        <v>621.37311310892699</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C11" s="48"/>
+      <c r="D11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="12">
+        <v>27953.101999999999</v>
+      </c>
+      <c r="F11" s="16">
+        <v>24.507999999999999</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>1139.5705075893586</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1139.57050758936</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C12" s="48"/>
+      <c r="D12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="12">
+        <v>70302.846000000005</v>
+      </c>
+      <c r="F12" s="14">
+        <v>30.298999999999999</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>2319.3025182349256</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2319.3025182349302</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C13" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="12">
+        <v>253.876</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>294.8927738927739</v>
+      </c>
+      <c r="H13" s="21">
+        <v>294.89277389277402</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C14" s="48"/>
+      <c r="D14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="12">
+        <v>496.392</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>748.83685800604223</v>
+      </c>
+      <c r="H14" s="21">
+        <v>748.83685800604201</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C15" s="48"/>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="12">
+        <v>394.42</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>619.15723270440253</v>
+      </c>
+      <c r="H15" s="21">
+        <v>619.15723270440299</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C16" s="48"/>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1061.232</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>1413.9759999999999</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1413.9760000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
